--- a/data/134/DEUSTATIS/old/Import price index - GP9 codes.xlsx
+++ b/data/134/DEUSTATIS/old/Import price index - GP9 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="84">
   <si>
     <t>Index of import prices: Germany, months, product
 classification (GP2009 2-/3-/4-digit codes/special items)</t>
@@ -264,7 +264,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:35:49</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:33:52</t>
   </si>
 </sst>
 </file>
@@ -17654,14 +17654,14 @@
       <c r="AAP7" t="n" s="10">
         <v>111.1</v>
       </c>
-      <c r="AAQ7" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAR7" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAS7" t="s" s="10">
-        <v>79</v>
+      <c r="AAQ7" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="AAR7" t="n" s="10">
+        <v>115.9</v>
+      </c>
+      <c r="AAS7" t="n" s="10">
+        <v>119.5</v>
       </c>
       <c r="AAT7" t="s" s="10">
         <v>79</v>
@@ -19822,14 +19822,14 @@
       <c r="AAP8" t="n" s="10">
         <v>140.2</v>
       </c>
-      <c r="AAQ8" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAR8" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAS8" t="s" s="10">
-        <v>79</v>
+      <c r="AAQ8" t="n" s="10">
+        <v>141.6</v>
+      </c>
+      <c r="AAR8" t="n" s="10">
+        <v>160.6</v>
+      </c>
+      <c r="AAS8" t="n" s="10">
+        <v>161.3</v>
       </c>
       <c r="AAT8" t="s" s="10">
         <v>79</v>
@@ -19915,7 +19915,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:35:54&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:33:59&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>